--- a/src/main/webapp/WEB-INF/books/cellStyle.xlsx
+++ b/src/main/webapp/WEB-INF/books/cellStyle.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/dev-ref/src/main/webapp/WEB-INF/books/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CD38C7-ADE1-5742-90F9-1D9ADE348842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="17040" windowHeight="11280"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Left</t>
   </si>
@@ -25,14 +31,26 @@
     <t>right</t>
   </si>
   <si>
-    <t>general (default)</t>
+    <t>default alignment</t>
+  </si>
+  <si>
+    <t>double underline</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t>underline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +64,45 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,44 +208,70 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -235,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +350,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,6 +402,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,54 +595,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" ht="35.25" customHeight="1">
-      <c r="B2" s="7" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="35.25" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="35.25" customHeight="1">
-      <c r="B4" s="9" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
